--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3094362.471159549</v>
+        <v>3087189.182449266</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702196</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D2" t="n">
-        <v>38.19053515138876</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>16.15254088235791</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.13564766641243</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>183.0506361142374</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1989433021658</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464229</v>
+        <v>304.8761077332464</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464229</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.032731088982359</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464221</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989484636</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512967</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>131.7420028627189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>64.00137801481739</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.804361360102</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358469</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322654</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>124.6804006624489</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.94614978640935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.37013941318892</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.2096816496053</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.88895837573483</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.35845141792571</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527403</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>187.8691087411199</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>247.1379561257962</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>124.2415152959845</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>203.3807067317122</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>166.2774525372394</v>
+        <v>201.93298823066</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527405</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.6864005999577</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583891</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.46129407658275</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273986</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.22804619697983</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111318</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>42.02510219382525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>148.8149389999066</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>284.3969895868253</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>1066.049756676706</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1037832399832</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
         <v>229.2118363665377</v>
@@ -4327,25 +4327,25 @@
         <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4366,16 +4366,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.38105409256463</v>
+        <v>109.772397078701</v>
       </c>
       <c r="C3" t="n">
-        <v>37.38105409256463</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D3" t="n">
-        <v>37.38105409256463</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>42.78065525324473</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>288.9361218459457</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459457</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>902.746154837531</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U3" t="n">
-        <v>902.746154837531</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="V3" t="n">
-        <v>667.5940466057882</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="W3" t="n">
-        <v>413.3566898775866</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="X3" t="n">
-        <v>413.3566898775866</v>
+        <v>294.6720295173246</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5963911126327</v>
+        <v>109.772397078701</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>427.4862111402843</v>
+        <v>604.1521110416488</v>
       </c>
       <c r="C5" t="n">
-        <v>427.4862111402843</v>
+        <v>604.1521110416488</v>
       </c>
       <c r="D5" t="n">
-        <v>427.4862111402843</v>
+        <v>245.8864124348984</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470556</v>
+        <v>245.8864124348984</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550208</v>
+        <v>238.9409116856949</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771383</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771383</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380434</v>
+        <v>57.64391735380406</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456886</v>
+        <v>220.1747338456879</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039988</v>
+        <v>474.0852112039976</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494176</v>
+        <v>773.216086049416</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635724</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293131</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S5" t="n">
-        <v>1487.115360669548</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="T5" t="n">
-        <v>1487.115360669548</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="U5" t="n">
-        <v>1487.115360669548</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="V5" t="n">
-        <v>1156.052473325977</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="W5" t="n">
-        <v>803.2838180558631</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="X5" t="n">
-        <v>803.2838180558631</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="Y5" t="n">
-        <v>803.2838180558631</v>
+        <v>912.1077754186654</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692.0930670886354</v>
+        <v>414.9419224351894</v>
       </c>
       <c r="C6" t="n">
-        <v>517.6400378075084</v>
+        <v>240.4888931540624</v>
       </c>
       <c r="D6" t="n">
-        <v>368.7056281462571</v>
+        <v>91.5544834928111</v>
       </c>
       <c r="E6" t="n">
-        <v>368.7056281462571</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771383</v>
+        <v>52.6753726278285</v>
       </c>
       <c r="K6" t="n">
-        <v>195.4097745063027</v>
+        <v>218.4568186361413</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524392</v>
+        <v>502.7748277822775</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524392</v>
+        <v>811.5244074754111</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903979</v>
+        <v>1179.843642013369</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562718</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706688</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107483</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458531</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.017297458531</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="V6" t="n">
-        <v>1033.017297458531</v>
+        <v>1253.006415153946</v>
       </c>
       <c r="W6" t="n">
-        <v>899.9445672941682</v>
+        <v>998.7690584257441</v>
       </c>
       <c r="X6" t="n">
-        <v>692.0930670886354</v>
+        <v>790.9175582202113</v>
       </c>
       <c r="Y6" t="n">
-        <v>692.0930670886354</v>
+        <v>583.1572594552574</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1021391583064</v>
+        <v>94.41102704833739</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="E7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="F7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="G7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="H7" t="n">
-        <v>246.1021391583064</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888178</v>
+        <v>32.09990175888156</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611308</v>
+        <v>90.61654790611267</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236694</v>
+        <v>162.7032697236688</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400029</v>
+        <v>238.510546840002</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057955</v>
+        <v>292.5145415057946</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918686</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="R7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="S7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="T7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="U7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1021391583064</v>
+        <v>315.2036061918675</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1021391583064</v>
+        <v>94.41102704833739</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3346612638206</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>744.3346612638206</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>744.3346612638206</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3346612638206</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>333.3487564742131</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303754</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.934501327942</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>2649.889045452863</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>2896.654173359327</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>3254.09465985463</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>3583.957287518663</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>4253.421048821322</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>381.281078858296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>233.3679852759029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706318</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.3977182706318</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.461721072713</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.6944526764913</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C16" t="n">
-        <v>505.7582697485844</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>356.4382299591518</v>
       </c>
       <c r="G16" t="n">
         <v>208.7516828383384</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1305.125047548278</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1305.125047548278</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1305.125047548278</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1305.125047548278</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1305.125047548278</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>1077.135496650261</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.3429175067311</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>180.4074464278876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799443</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799443</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3409.006809316316</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1198.074390613546</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1198.074390613546</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>943.3899024076591</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>653.9727323706985</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3928.626224708976</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>3759.690041781069</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368733</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368733</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929846</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4411.30026381288</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4156.615775606993</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4156.615775606993</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3928.626224708976</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3928.626224708976</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.8019868198124</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>720.4504516500522</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.4504516500522</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,40 +6451,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,10 +6542,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635878</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
         <v>1099.417155020476</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3717.579932792639</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>3717.579932792639</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>3717.579932792639</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>3717.579932792639</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294729</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.859459491671</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.859459491671</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4295.174971285785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4127.217948520896</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X31" t="n">
-        <v>3899.228397622879</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y31" t="n">
-        <v>3899.228397622879</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4347.940519017356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4179.004336089449</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>4028.887696677113</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3880.97460309472</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3734.08465559681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3565.909333916631</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3565.909333916631</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803798</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017356</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017356</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4347.940519017356</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4347.940519017356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4347.940519017356</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1419.662438157314</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1419.662438157314</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1419.662438157314</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1419.662438157314</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1164.977949951427</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>875.5607799144661</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>647.5712290164488</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>426.7786498729187</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3609.272033329011</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3609.272033329011</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4182.464659513464</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>3893.047489476503</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3665.057938578486</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3665.057938578486</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7402,40 +7402,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7453,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1456.466672382321</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1167.33803359588</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>912.6535453899926</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>623.236375353032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,13 +7684,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>2896.654173359327</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>3484.747546292012</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>4289.159124556162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3907.603135363461</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>3907.603135363461</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>3757.486495951126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4599.461349374192</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4599.461349374192</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4599.461349374192</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4599.461349374192</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>4310.044179337231</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X46" t="n">
-        <v>4310.044179337231</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>4089.251600193701</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>146.5746030901479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>342.7591889337359</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.3290330027561</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>78.06372243715093</v>
+        <v>389.9319847534479</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470463</v>
+        <v>437.6152809470459</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936157</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>50.62661940943633</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>113.6026921294541</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>116.9087390531963</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>73.64859338270685</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6093329825487</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>121.0509086097423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>20.28388681377226</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>116.0318516078684</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>28.06079404634629</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>33.67845231726938</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.09939627278118</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>43.00530580264329</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>48.75693659211584</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.2455457993516</v>
+        <v>84.59001010593104</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>4.732844864314117</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.50305832721006</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.6039339849575</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.90698584635159</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>179.522458864564</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>49.1058709836966</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.126008749765731</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744790.5744110566</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672188</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="K2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672188</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703847</v>
+        <v>106137.1517703838</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.94242521</v>
+        <v>316711.942425211</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313442</v>
+        <v>24677.24609313418</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817116</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291749.0011542653</v>
+        <v>291749.0011542652</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563266</v>
+        <v>261372.5469563269</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
@@ -26438,22 +26438,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687084</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485721</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,19 +26487,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>208135.7380201753</v>
       </c>
       <c r="C6" t="n">
-        <v>251039.3393964651</v>
+        <v>251039.3393964657</v>
       </c>
       <c r="D6" t="n">
-        <v>112155.5718628898</v>
+        <v>112155.5718628885</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554735484</v>
+        <v>4901.387295013842</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316317</v>
+        <v>530061.4237719101</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719103</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="J6" t="n">
-        <v>458781.3201604928</v>
+        <v>457806.7289007712</v>
       </c>
       <c r="K6" t="n">
-        <v>506358.7689384978</v>
+        <v>505384.1776787764</v>
       </c>
       <c r="L6" t="n">
-        <v>454539.8570934606</v>
+        <v>453565.2658337391</v>
       </c>
       <c r="M6" t="n">
-        <v>396234.999797795</v>
+        <v>395260.4085380732</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="O6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.0150316316</v>
+        <v>530061.4237719104</v>
       </c>
     </row>
   </sheetData>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.418687638008123e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593897</v>
+        <v>117.560204559389</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464221</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026444</v>
+        <v>82.53894384026368</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576969</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406748</v>
+        <v>95.8831171440666</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081326</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406771</v>
+        <v>95.88311714406677</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081321</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406748</v>
+        <v>95.8831171440666</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081326</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>316.4925064692942</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>365.7778291899039</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.0054348249641</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27438,7 +27438,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.5094327889885</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>22.63205966306694</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.63303687977148</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>128.6586507951752</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705764</v>
+        <v>77.85773393023419</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225838843</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
-        <v>197.217878551948</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.1983078096315</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.47168056055457</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512968</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>119.9529802982007</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>103.2454430838104</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>13.27088149039466</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358477</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322664</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>289.1037693583461</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.8858303955279</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424682</v>
+        <v>0.4726038374246791</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025525</v>
+        <v>4.840054050025496</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231507</v>
+        <v>18.22005944231496</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662314</v>
+        <v>40.11165994662289</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480994</v>
+        <v>60.11698038480957</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439557</v>
+        <v>74.58043007439511</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819675</v>
+        <v>82.98509856819625</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127963</v>
+        <v>84.32788422127912</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288794</v>
+        <v>79.62842981288746</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646611</v>
+        <v>67.96102257646569</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869466</v>
+        <v>51.03589764869435</v>
       </c>
       <c r="R5" t="n">
-        <v>29.6872008026282</v>
+        <v>29.68720080262803</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531495</v>
+        <v>10.76945994531489</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326546</v>
+        <v>2.068823298326534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397455</v>
+        <v>0.03780830699397432</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560458</v>
+        <v>0.2528653456560443</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941285</v>
+        <v>2.442146890941271</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596317</v>
+        <v>8.706109488596264</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182844</v>
+        <v>23.8902298718283</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078351</v>
+        <v>40.83220803078326</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483575</v>
+        <v>54.90394270483542</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486739</v>
+        <v>64.07031148486701</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270993</v>
+        <v>65.76606198270953</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106807</v>
+        <v>60.1630982710677</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496897</v>
+        <v>48.28619043496867</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128754</v>
+        <v>32.27803956128734</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134643</v>
+        <v>15.69983260134634</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707691</v>
+        <v>4.696862889707663</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359237</v>
+        <v>1.019224792359231</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368723</v>
+        <v>0.01663587800368713</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005388</v>
+        <v>0.2119938115005376</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588661</v>
+        <v>1.884817705886599</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761661</v>
+        <v>6.375232076761622</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308809</v>
+        <v>14.987962473088</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342623</v>
+        <v>24.62982646342608</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072557</v>
+        <v>31.51769812072538</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094355</v>
+        <v>33.23099356094335</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898703</v>
+        <v>32.44083480898683</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736708</v>
+        <v>29.9643616473669</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275607</v>
+        <v>25.63968789275591</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846785</v>
+        <v>17.75159088846774</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651499</v>
+        <v>9.53201265165144</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513935</v>
+        <v>3.694473969513912</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477566</v>
+        <v>0.9057917400477511</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912031</v>
+        <v>0.01156329880912024</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.89710520914777</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>231.0092291087367</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201062</v>
+        <v>28.16237059201038</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109938</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548588</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337565</v>
+        <v>302.152398833756</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366729</v>
+        <v>292.2617450366724</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539466</v>
+        <v>230.3303996539461</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414986</v>
+        <v>41.04519843414955</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557044</v>
       </c>
       <c r="K6" t="n">
-        <v>167.3198020591806</v>
+        <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>311.8682623162965</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464221</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033532</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605759</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543382</v>
+        <v>2.360334637543232</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104171</v>
+        <v>59.10772338104152</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278413</v>
+        <v>72.81487052278393</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821563</v>
+        <v>76.57300718821543</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140676</v>
+        <v>54.54948956140657</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764956</v>
+        <v>22.9182471576494</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>361.0509964599025</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>424.0270691799203</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,16 +35977,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>399.2724412943044</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>642.866388531833</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>224.2240319706461</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>594.0337100330149</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
